--- a/biology/Botanique/Dendroctonus/Dendroctonus.xlsx
+++ b/biology/Botanique/Dendroctonus/Dendroctonus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendroctonus est un genre d'insectes de l'ordre des coléoptères (insectes possédant en général deux paires d'ailes incluant entre autres les scarabées, coccinelles, lucanes, chrysomèles, hannetons, charançons et carabes).
 Les espèces de ce genre sont xylophages et font partie de la sous-famille des Scolytinae.
@@ -512,7 +524,9 @@
           <t>Liste des espèces eurasiennes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dendroctonus micans (Kugelann, 1794) - dendroctone européen de l'épinette</t>
         </is>
@@ -542,7 +556,9 @@
           <t>Liste des espèces chinoises</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dendroctonus armandi Tsai &amp; Li (1959)</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Liste des espèces nord et centre-américaines</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dendroctonus adjunctus Blandford, 1897
 Dendroctonus approximatus Dietz, 1890
